--- a/OUTPUT UKGCommon/Martin ppe 4.22.23.xlsx
+++ b/OUTPUT UKGCommon/Martin ppe 4.22.23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="420">
   <si>
     <t>EMPLID</t>
   </si>
@@ -1093,64 +1093,127 @@
     <t>11.00</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-PCU5NW/RN3100-3100-31430-0-0-0-0-0</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-8THFLOOR/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MEDICALRENAL4NW/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-CDU/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-OBSERVATION2E/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-3RDFLOOR/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-PCU5NW/RN</t>
-  </si>
-  <si>
-    <t>CC:3100-3107-33001-0-0-0-0-0</t>
-  </si>
-  <si>
-    <t>CC:3100-3100-12951-0-0-0-0-0</t>
-  </si>
-  <si>
-    <t>CC:3101-3101-12951-0-0-0-0-0</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MICU/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-PCU2B/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-ONCOLOGY3W/RN</t>
+    <t xml:space="preserve"> |  NEMHNND,40,511,STD,DED,NCC,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Personal Illness  </t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN | Incorrect Soft Key Selected AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-PCU5NW/RNCC: | 3100-3100-31430-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Forgot to Punch  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Excused1MHNND, | 40,511,STD,DED,TRSystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Excused  </t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |  1MHNND,40,511,STD,DED,TRBask</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN | Att-Excused AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-8THFLOOR/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MEDICALRENAL4NW/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-CDU/RN | Att-Excused AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-OBSERVATION2E/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-OBSERVATION2E/RN | Incorrect Soft Key Selected AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-3RDFLOOR/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-PCU5NW/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |  1M1FLA,40,NON,STD,DED,TRSystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | CC:3100-3107-33001-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | CC:3100-3100-12951-0-0-0-0-0 | Att-Early Out AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | CC:3101-3101-12951-0-0-0-0-0 | Att-Early Out AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |  NEMHNND,40,511,STD,DED,CIN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Early Out  </t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN | Att-Excused AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN | Att-Excused AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MICU/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Late In  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Approved OT NEMHNND,40,511,STD,DED,CIN3</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-CDU/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Class 1M1FLA,40,NON,STD,DED,TRSystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Forgot to Punch 1M1FLA,40,NON,STD,DED,TRSystems</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-PCU2B/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Att-Forgot to Punch, Att-Forgot to </t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-ONCOLOGY3W/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |  1M1FLA,40,NON,STD,DED,CIN3</t>
   </si>
   <si>
     <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-INTERVENTIONALRAD/RN|3100-3100-32045</t>
@@ -1653,7 +1716,7 @@
         <v>320</v>
       </c>
       <c r="S2" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1676,7 +1739,7 @@
         <v>321</v>
       </c>
       <c r="S3" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1698,8 +1761,11 @@
       <c r="J4" t="s">
         <v>322</v>
       </c>
+      <c r="R4" t="s">
+        <v>359</v>
+      </c>
       <c r="S4" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1722,7 +1788,7 @@
         <v>323</v>
       </c>
       <c r="S5" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1745,7 +1811,7 @@
         <v>323</v>
       </c>
       <c r="S6" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1768,7 +1834,7 @@
         <v>322</v>
       </c>
       <c r="S7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1791,7 +1857,7 @@
         <v>324</v>
       </c>
       <c r="S8" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1813,8 +1879,11 @@
       <c r="J9" t="s">
         <v>325</v>
       </c>
+      <c r="R9" t="s">
+        <v>360</v>
+      </c>
       <c r="S9" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1837,7 +1906,7 @@
         <v>322</v>
       </c>
       <c r="S10" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1860,7 +1929,7 @@
         <v>322</v>
       </c>
       <c r="S11" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1883,7 +1952,7 @@
         <v>322</v>
       </c>
       <c r="S12" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1906,7 +1975,7 @@
         <v>326</v>
       </c>
       <c r="S13" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1929,7 +1998,7 @@
         <v>321</v>
       </c>
       <c r="S14" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1952,10 +2021,10 @@
         <v>320</v>
       </c>
       <c r="R15" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S15" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1978,10 +2047,10 @@
         <v>327</v>
       </c>
       <c r="R16" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S16" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="2:19">
@@ -2004,10 +2073,10 @@
         <v>328</v>
       </c>
       <c r="R17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S17" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="2:19">
@@ -2030,10 +2099,10 @@
         <v>327</v>
       </c>
       <c r="R18" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S18" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="2:19">
@@ -2056,10 +2125,10 @@
         <v>327</v>
       </c>
       <c r="R19" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S19" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="2:19">
@@ -2082,10 +2151,10 @@
         <v>327</v>
       </c>
       <c r="R20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S20" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -2108,7 +2177,7 @@
         <v>320</v>
       </c>
       <c r="S21" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -2131,10 +2200,10 @@
         <v>327</v>
       </c>
       <c r="R22" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S22" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="2:19">
@@ -2157,10 +2226,10 @@
         <v>327</v>
       </c>
       <c r="R23" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S23" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -2183,7 +2252,7 @@
         <v>329</v>
       </c>
       <c r="S24" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="2:19">
@@ -2206,10 +2275,10 @@
         <v>330</v>
       </c>
       <c r="R25" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S25" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="2:19">
@@ -2231,8 +2300,11 @@
       <c r="J26" t="s">
         <v>327</v>
       </c>
+      <c r="R26" t="s">
+        <v>365</v>
+      </c>
       <c r="S26" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="2:19">
@@ -2255,7 +2327,7 @@
         <v>330</v>
       </c>
       <c r="S27" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="2:19">
@@ -2277,8 +2349,11 @@
       <c r="J28" t="s">
         <v>331</v>
       </c>
+      <c r="R28" t="s">
+        <v>366</v>
+      </c>
       <c r="S28" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="2:19">
@@ -2300,8 +2375,11 @@
       <c r="J29" t="s">
         <v>332</v>
       </c>
+      <c r="R29" t="s">
+        <v>367</v>
+      </c>
       <c r="S29" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="2:19">
@@ -2324,7 +2402,7 @@
         <v>332</v>
       </c>
       <c r="S30" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="2:19">
@@ -2347,7 +2425,7 @@
         <v>333</v>
       </c>
       <c r="S31" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -2370,10 +2448,10 @@
         <v>327</v>
       </c>
       <c r="R32" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="S32" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="2:19">
@@ -2396,7 +2474,7 @@
         <v>330</v>
       </c>
       <c r="S33" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="2:19">
@@ -2419,7 +2497,7 @@
         <v>332</v>
       </c>
       <c r="S34" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="2:19">
@@ -2442,7 +2520,7 @@
         <v>320</v>
       </c>
       <c r="S35" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -2464,8 +2542,11 @@
       <c r="J36" t="s">
         <v>334</v>
       </c>
+      <c r="R36" t="s">
+        <v>369</v>
+      </c>
       <c r="S36" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:19">
@@ -2488,7 +2569,7 @@
         <v>327</v>
       </c>
       <c r="S37" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="2:19">
@@ -2511,7 +2592,7 @@
         <v>332</v>
       </c>
       <c r="S38" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="2:19">
@@ -2534,7 +2615,7 @@
         <v>334</v>
       </c>
       <c r="S39" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -2557,7 +2638,7 @@
         <v>329</v>
       </c>
       <c r="S40" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="2:19">
@@ -2580,7 +2661,7 @@
         <v>329</v>
       </c>
       <c r="S41" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="2:19">
@@ -2603,7 +2684,7 @@
         <v>327</v>
       </c>
       <c r="S42" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -2626,7 +2707,7 @@
         <v>329</v>
       </c>
       <c r="S43" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="2:19">
@@ -2649,10 +2730,10 @@
         <v>320</v>
       </c>
       <c r="R44" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="S44" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="2:19">
@@ -2675,10 +2756,10 @@
         <v>332</v>
       </c>
       <c r="R45" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="S45" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -2698,10 +2779,10 @@
         <v>147</v>
       </c>
       <c r="R46" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="S46" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="2:19">
@@ -2724,10 +2805,10 @@
         <v>332</v>
       </c>
       <c r="R47" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S47" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="2:19">
@@ -2747,7 +2828,7 @@
         <v>332</v>
       </c>
       <c r="S48" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="2:19">
@@ -2770,10 +2851,10 @@
         <v>332</v>
       </c>
       <c r="R49" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="S49" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="2:19">
@@ -2796,10 +2877,10 @@
         <v>329</v>
       </c>
       <c r="R50" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="S50" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="2:19">
@@ -2822,10 +2903,10 @@
         <v>327</v>
       </c>
       <c r="R51" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="S51" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="2:19">
@@ -2848,10 +2929,10 @@
         <v>327</v>
       </c>
       <c r="R52" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="S52" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="2:19">
@@ -2874,10 +2955,10 @@
         <v>335</v>
       </c>
       <c r="R53" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="S53" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="2:19">
@@ -2900,10 +2981,10 @@
         <v>327</v>
       </c>
       <c r="R54" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="S54" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="2:19">
@@ -2926,7 +3007,7 @@
         <v>329</v>
       </c>
       <c r="S55" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="2:19">
@@ -2949,7 +3030,7 @@
         <v>329</v>
       </c>
       <c r="S56" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="2:19">
@@ -2972,7 +3053,7 @@
         <v>329</v>
       </c>
       <c r="S57" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="2:19">
@@ -2995,10 +3076,10 @@
         <v>336</v>
       </c>
       <c r="R58" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="S58" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="2:19">
@@ -3021,7 +3102,7 @@
         <v>336</v>
       </c>
       <c r="S59" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="2:19">
@@ -3044,7 +3125,7 @@
         <v>327</v>
       </c>
       <c r="S60" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="2:19">
@@ -3067,7 +3148,7 @@
         <v>325</v>
       </c>
       <c r="S61" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="2:19">
@@ -3090,7 +3171,7 @@
         <v>332</v>
       </c>
       <c r="S62" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="2:19">
@@ -3113,7 +3194,7 @@
         <v>336</v>
       </c>
       <c r="S63" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="2:19">
@@ -3136,7 +3217,7 @@
         <v>329</v>
       </c>
       <c r="S64" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="2:19">
@@ -3159,7 +3240,7 @@
         <v>336</v>
       </c>
       <c r="S65" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="2:19">
@@ -3182,7 +3263,7 @@
         <v>327</v>
       </c>
       <c r="S66" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="2:19">
@@ -3205,7 +3286,7 @@
         <v>337</v>
       </c>
       <c r="S67" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="2:19">
@@ -3228,10 +3309,10 @@
         <v>330</v>
       </c>
       <c r="R68" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="S68" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="2:19">
@@ -3254,7 +3335,7 @@
         <v>336</v>
       </c>
       <c r="S69" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="2:19">
@@ -3277,7 +3358,7 @@
         <v>338</v>
       </c>
       <c r="S70" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="2:19">
@@ -3300,10 +3381,10 @@
         <v>327</v>
       </c>
       <c r="R71" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="S71" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="2:19">
@@ -3326,10 +3407,10 @@
         <v>333</v>
       </c>
       <c r="R72" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="S72" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="2:19">
@@ -3351,8 +3432,11 @@
       <c r="J73" t="s">
         <v>339</v>
       </c>
+      <c r="R73" t="s">
+        <v>380</v>
+      </c>
       <c r="S73" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="2:19">
@@ -3375,7 +3459,7 @@
         <v>327</v>
       </c>
       <c r="S74" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="2:19">
@@ -3398,7 +3482,7 @@
         <v>329</v>
       </c>
       <c r="S75" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="2:19">
@@ -3421,7 +3505,7 @@
         <v>336</v>
       </c>
       <c r="S76" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="2:19">
@@ -3444,10 +3528,10 @@
         <v>327</v>
       </c>
       <c r="R77" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S77" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="2:19">
@@ -3467,10 +3551,10 @@
         <v>176</v>
       </c>
       <c r="R78" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="S78" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="2:19">
@@ -3493,10 +3577,10 @@
         <v>340</v>
       </c>
       <c r="R79" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="S79" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="2:19">
@@ -3519,10 +3603,10 @@
         <v>323</v>
       </c>
       <c r="R80" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="S80" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="2:19">
@@ -3542,7 +3626,7 @@
         <v>179</v>
       </c>
       <c r="S81" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="2:19">
@@ -3564,8 +3648,11 @@
       <c r="J82" t="s">
         <v>341</v>
       </c>
+      <c r="R82" t="s">
+        <v>384</v>
+      </c>
       <c r="S82" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="2:19">
@@ -3588,7 +3675,7 @@
         <v>326</v>
       </c>
       <c r="S83" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="2:19">
@@ -3610,8 +3697,11 @@
       <c r="J84" t="s">
         <v>342</v>
       </c>
+      <c r="R84" t="s">
+        <v>385</v>
+      </c>
       <c r="S84" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="2:19">
@@ -3628,7 +3718,7 @@
         <v>101</v>
       </c>
       <c r="S85" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="2:19">
@@ -3651,7 +3741,7 @@
         <v>325</v>
       </c>
       <c r="S86" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="2:19">
@@ -3674,10 +3764,10 @@
         <v>343</v>
       </c>
       <c r="R87" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="S87" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="2:19">
@@ -3697,10 +3787,10 @@
         <v>184</v>
       </c>
       <c r="R88" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="S88" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="2:19">
@@ -3723,10 +3813,10 @@
         <v>344</v>
       </c>
       <c r="R89" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="S89" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="2:19">
@@ -3749,7 +3839,7 @@
         <v>332</v>
       </c>
       <c r="S90" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="2:19">
@@ -3772,7 +3862,7 @@
         <v>332</v>
       </c>
       <c r="S91" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="2:19">
@@ -3795,10 +3885,10 @@
         <v>329</v>
       </c>
       <c r="R92" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="S92" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="2:19">
@@ -3821,7 +3911,7 @@
         <v>327</v>
       </c>
       <c r="S93" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="2:19">
@@ -3844,7 +3934,7 @@
         <v>332</v>
       </c>
       <c r="S94" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="2:19">
@@ -3867,7 +3957,7 @@
         <v>329</v>
       </c>
       <c r="S95" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="2:19">
@@ -3890,7 +3980,7 @@
         <v>329</v>
       </c>
       <c r="S96" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -3913,7 +4003,7 @@
         <v>327</v>
       </c>
       <c r="S97" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="2:19">
@@ -3936,7 +4026,7 @@
         <v>338</v>
       </c>
       <c r="S98" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="2:19">
@@ -3959,7 +4049,7 @@
         <v>327</v>
       </c>
       <c r="S99" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="2:19">
@@ -3982,7 +4072,7 @@
         <v>345</v>
       </c>
       <c r="S100" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="2:19">
@@ -4005,7 +4095,7 @@
         <v>327</v>
       </c>
       <c r="S101" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="2:19">
@@ -4028,7 +4118,7 @@
         <v>327</v>
       </c>
       <c r="S102" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="2:19">
@@ -4051,7 +4141,7 @@
         <v>329</v>
       </c>
       <c r="S103" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="2:19">
@@ -4074,7 +4164,7 @@
         <v>336</v>
       </c>
       <c r="S104" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="2:19">
@@ -4097,7 +4187,7 @@
         <v>336</v>
       </c>
       <c r="S105" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="2:19">
@@ -4120,10 +4210,10 @@
         <v>332</v>
       </c>
       <c r="R106" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="S106" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="2:19">
@@ -4146,7 +4236,7 @@
         <v>336</v>
       </c>
       <c r="S107" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="2:19">
@@ -4169,7 +4259,7 @@
         <v>336</v>
       </c>
       <c r="S108" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="2:19">
@@ -4192,7 +4282,7 @@
         <v>330</v>
       </c>
       <c r="S109" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="2:19">
@@ -4215,7 +4305,7 @@
         <v>332</v>
       </c>
       <c r="S110" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="2:19">
@@ -4238,7 +4328,7 @@
         <v>332</v>
       </c>
       <c r="S111" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="2:19">
@@ -4261,7 +4351,7 @@
         <v>327</v>
       </c>
       <c r="S112" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="2:19">
@@ -4284,7 +4374,7 @@
         <v>338</v>
       </c>
       <c r="S113" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="2:19">
@@ -4307,7 +4397,7 @@
         <v>327</v>
       </c>
       <c r="S114" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="2:19">
@@ -4330,7 +4420,7 @@
         <v>329</v>
       </c>
       <c r="S115" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="2:19">
@@ -4350,10 +4440,10 @@
         <v>320</v>
       </c>
       <c r="R116" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S116" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="2:19">
@@ -4375,8 +4465,11 @@
       <c r="J117" t="s">
         <v>336</v>
       </c>
+      <c r="R117" t="s">
+        <v>367</v>
+      </c>
       <c r="S117" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="2:19">
@@ -4399,10 +4492,10 @@
         <v>327</v>
       </c>
       <c r="R118" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="S118" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="2:19">
@@ -4425,10 +4518,10 @@
         <v>327</v>
       </c>
       <c r="R119" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="S119" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="2:19">
@@ -4451,10 +4544,10 @@
         <v>329</v>
       </c>
       <c r="R120" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="S120" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="2:19">
@@ -4477,10 +4570,10 @@
         <v>336</v>
       </c>
       <c r="R121" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="S121" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="2:19">
@@ -4503,10 +4596,10 @@
         <v>329</v>
       </c>
       <c r="R122" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="S122" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="2:19">
@@ -4529,7 +4622,7 @@
         <v>346</v>
       </c>
       <c r="S123" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="2:19">
@@ -4552,7 +4645,7 @@
         <v>338</v>
       </c>
       <c r="S124" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="2:19">
@@ -4575,7 +4668,7 @@
         <v>332</v>
       </c>
       <c r="S125" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="2:19">
@@ -4598,7 +4691,7 @@
         <v>347</v>
       </c>
       <c r="S126" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="2:19">
@@ -4621,7 +4714,7 @@
         <v>332</v>
       </c>
       <c r="S127" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="2:19">
@@ -4644,7 +4737,7 @@
         <v>332</v>
       </c>
       <c r="S128" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="2:19">
@@ -4667,7 +4760,7 @@
         <v>327</v>
       </c>
       <c r="S129" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="2:19">
@@ -4690,7 +4783,7 @@
         <v>338</v>
       </c>
       <c r="S130" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="2:19">
@@ -4713,7 +4806,7 @@
         <v>329</v>
       </c>
       <c r="S131" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="2:19">
@@ -4736,7 +4829,7 @@
         <v>346</v>
       </c>
       <c r="S132" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="2:19">
@@ -4759,7 +4852,7 @@
         <v>332</v>
       </c>
       <c r="S133" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="2:19">
@@ -4782,7 +4875,7 @@
         <v>329</v>
       </c>
       <c r="S134" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="2:19">
@@ -4805,7 +4898,7 @@
         <v>327</v>
       </c>
       <c r="S135" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="2:19">
@@ -4825,10 +4918,10 @@
         <v>320</v>
       </c>
       <c r="R136" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="S136" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="2:19">
@@ -4851,7 +4944,7 @@
         <v>332</v>
       </c>
       <c r="S137" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="2:19">
@@ -4874,10 +4967,10 @@
         <v>348</v>
       </c>
       <c r="R138" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="S138" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="2:19">
@@ -4900,7 +4993,7 @@
         <v>329</v>
       </c>
       <c r="S139" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="2:19">
@@ -4922,8 +5015,11 @@
       <c r="J140" t="s">
         <v>349</v>
       </c>
+      <c r="R140" t="s">
+        <v>380</v>
+      </c>
       <c r="S140" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="2:19">
@@ -4946,7 +5042,7 @@
         <v>336</v>
       </c>
       <c r="S141" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="2:19">
@@ -4969,10 +5065,10 @@
         <v>330</v>
       </c>
       <c r="R142" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="S142" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="2:19">
@@ -4995,7 +5091,7 @@
         <v>327</v>
       </c>
       <c r="S143" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="2:19">
@@ -5018,7 +5114,7 @@
         <v>320</v>
       </c>
       <c r="S144" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="2:19">
@@ -5038,7 +5134,7 @@
         <v>229</v>
       </c>
       <c r="S145" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="146" spans="2:19">
@@ -5061,7 +5157,7 @@
         <v>346</v>
       </c>
       <c r="S146" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="2:19">
@@ -5081,7 +5177,7 @@
         <v>231</v>
       </c>
       <c r="S147" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="2:19">
@@ -5104,7 +5200,7 @@
         <v>346</v>
       </c>
       <c r="S148" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="2:19">
@@ -5127,7 +5223,7 @@
         <v>350</v>
       </c>
       <c r="S149" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="2:19">
@@ -5147,7 +5243,7 @@
         <v>234</v>
       </c>
       <c r="S150" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="2:19">
@@ -5170,7 +5266,7 @@
         <v>351</v>
       </c>
       <c r="S151" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="152" spans="2:19">
@@ -5193,7 +5289,7 @@
         <v>345</v>
       </c>
       <c r="S152" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="2:19">
@@ -5215,8 +5311,11 @@
       <c r="J153" t="s">
         <v>339</v>
       </c>
+      <c r="R153" t="s">
+        <v>384</v>
+      </c>
       <c r="S153" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="2:19">
@@ -5236,7 +5335,7 @@
         <v>238</v>
       </c>
       <c r="S154" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="2:19">
@@ -5259,7 +5358,7 @@
         <v>352</v>
       </c>
       <c r="S155" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="2:19">
@@ -5282,7 +5381,7 @@
         <v>353</v>
       </c>
       <c r="S156" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="2:19">
@@ -5302,7 +5401,7 @@
         <v>241</v>
       </c>
       <c r="S157" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="2:19">
@@ -5325,7 +5424,7 @@
         <v>322</v>
       </c>
       <c r="S158" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="2:19">
@@ -5344,8 +5443,11 @@
       <c r="G159" t="s">
         <v>243</v>
       </c>
+      <c r="R159" t="s">
+        <v>389</v>
+      </c>
       <c r="S159" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="2:19">
@@ -5368,7 +5470,7 @@
         <v>323</v>
       </c>
       <c r="S160" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="2:19">
@@ -5391,7 +5493,7 @@
         <v>335</v>
       </c>
       <c r="S161" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="2:19">
@@ -5411,7 +5513,7 @@
         <v>246</v>
       </c>
       <c r="S162" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="2:19">
@@ -5434,7 +5536,7 @@
         <v>346</v>
       </c>
       <c r="S163" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" spans="2:19">
@@ -5454,7 +5556,7 @@
         <v>248</v>
       </c>
       <c r="S164" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="2:19">
@@ -5477,7 +5579,7 @@
         <v>340</v>
       </c>
       <c r="S165" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" spans="2:19">
@@ -5500,7 +5602,7 @@
         <v>326</v>
       </c>
       <c r="S166" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="2:19">
@@ -5523,7 +5625,7 @@
         <v>354</v>
       </c>
       <c r="S167" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="2:19">
@@ -5545,8 +5647,11 @@
       <c r="J168" t="s">
         <v>339</v>
       </c>
+      <c r="R168" t="s">
+        <v>390</v>
+      </c>
       <c r="S168" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="2:19">
@@ -5569,7 +5674,7 @@
         <v>333</v>
       </c>
       <c r="S169" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="170" spans="2:19">
@@ -5592,10 +5697,10 @@
         <v>336</v>
       </c>
       <c r="R170" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="S170" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="171" spans="2:19">
@@ -5618,10 +5723,10 @@
         <v>332</v>
       </c>
       <c r="R171" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="S171" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="2:19">
@@ -5644,10 +5749,10 @@
         <v>338</v>
       </c>
       <c r="R172" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="S172" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="2:19">
@@ -5670,7 +5775,7 @@
         <v>320</v>
       </c>
       <c r="S173" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="174" spans="2:19">
@@ -5693,7 +5798,7 @@
         <v>320</v>
       </c>
       <c r="S174" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="175" spans="2:19">
@@ -5716,7 +5821,7 @@
         <v>330</v>
       </c>
       <c r="S175" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="2:19">
@@ -5739,10 +5844,10 @@
         <v>336</v>
       </c>
       <c r="R176" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="S176" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="2:19">
@@ -5765,7 +5870,7 @@
         <v>320</v>
       </c>
       <c r="S177" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="2:19">
@@ -5788,7 +5893,7 @@
         <v>336</v>
       </c>
       <c r="S178" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179" spans="2:19">
@@ -5811,7 +5916,7 @@
         <v>336</v>
       </c>
       <c r="S179" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="2:19">
@@ -5834,7 +5939,7 @@
         <v>330</v>
       </c>
       <c r="S180" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="2:19">
@@ -5857,7 +5962,7 @@
         <v>336</v>
       </c>
       <c r="S181" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="2:19">
@@ -5880,7 +5985,7 @@
         <v>329</v>
       </c>
       <c r="S182" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="2:19">
@@ -5903,7 +6008,7 @@
         <v>330</v>
       </c>
       <c r="S183" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="2:19">
@@ -5925,8 +6030,11 @@
       <c r="J184" t="s">
         <v>349</v>
       </c>
+      <c r="R184" t="s">
+        <v>393</v>
+      </c>
       <c r="S184" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185" spans="2:19">
@@ -5949,7 +6057,7 @@
         <v>332</v>
       </c>
       <c r="S185" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="2:19">
@@ -5972,7 +6080,7 @@
         <v>333</v>
       </c>
       <c r="S186" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="2:19">
@@ -5995,7 +6103,7 @@
         <v>329</v>
       </c>
       <c r="S187" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="188" spans="2:19">
@@ -6018,7 +6126,7 @@
         <v>329</v>
       </c>
       <c r="S188" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="2:19">
@@ -6041,10 +6149,10 @@
         <v>320</v>
       </c>
       <c r="R189" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S189" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="190" spans="2:19">
@@ -6067,7 +6175,7 @@
         <v>327</v>
       </c>
       <c r="S190" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="191" spans="2:19">
@@ -6090,7 +6198,7 @@
         <v>332</v>
       </c>
       <c r="S191" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="2:19">
@@ -6112,8 +6220,11 @@
       <c r="J192" t="s">
         <v>355</v>
       </c>
+      <c r="R192" t="s">
+        <v>394</v>
+      </c>
       <c r="S192" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" spans="2:19">
@@ -6136,7 +6247,7 @@
         <v>333</v>
       </c>
       <c r="S193" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="194" spans="2:19">
@@ -6159,7 +6270,7 @@
         <v>320</v>
       </c>
       <c r="S194" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="2:19">
@@ -6182,7 +6293,7 @@
         <v>320</v>
       </c>
       <c r="S195" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="2:19">
@@ -6205,10 +6316,10 @@
         <v>332</v>
       </c>
       <c r="R196" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S196" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="197" spans="2:19">
@@ -6231,10 +6342,10 @@
         <v>332</v>
       </c>
       <c r="R197" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S197" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="198" spans="2:19">
@@ -6254,10 +6365,10 @@
         <v>320</v>
       </c>
       <c r="R198" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S198" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="2:19">
@@ -6280,10 +6391,10 @@
         <v>335</v>
       </c>
       <c r="R199" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S199" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="2:19">
@@ -6305,8 +6416,11 @@
       <c r="J200" t="s">
         <v>349</v>
       </c>
+      <c r="R200" t="s">
+        <v>394</v>
+      </c>
       <c r="S200" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="201" spans="2:19">
@@ -6329,10 +6443,10 @@
         <v>335</v>
       </c>
       <c r="R201" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S201" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" spans="2:19">
@@ -6355,10 +6469,10 @@
         <v>330</v>
       </c>
       <c r="R202" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="S202" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203" spans="2:19">
@@ -6381,10 +6495,10 @@
         <v>329</v>
       </c>
       <c r="R203" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S203" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="2:19">
@@ -6407,7 +6521,7 @@
         <v>327</v>
       </c>
       <c r="S204" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="2:19">
@@ -6430,7 +6544,7 @@
         <v>356</v>
       </c>
       <c r="S205" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="2:19">
@@ -6453,7 +6567,7 @@
         <v>320</v>
       </c>
       <c r="S206" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="207" spans="2:19">
@@ -6476,7 +6590,7 @@
         <v>357</v>
       </c>
       <c r="S207" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="208" spans="2:19">
@@ -6495,8 +6609,11 @@
       <c r="G208" t="s">
         <v>131</v>
       </c>
+      <c r="R208" t="s">
+        <v>367</v>
+      </c>
       <c r="S208" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209" spans="2:19">
@@ -6518,8 +6635,11 @@
       <c r="J209" t="s">
         <v>356</v>
       </c>
+      <c r="R209" t="s">
+        <v>366</v>
+      </c>
       <c r="S209" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210" spans="2:19">
@@ -6541,8 +6661,11 @@
       <c r="J210" t="s">
         <v>332</v>
       </c>
+      <c r="R210" t="s">
+        <v>367</v>
+      </c>
       <c r="S210" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="211" spans="2:19">
@@ -6564,8 +6687,11 @@
       <c r="J211" t="s">
         <v>332</v>
       </c>
+      <c r="R211" t="s">
+        <v>367</v>
+      </c>
       <c r="S211" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="212" spans="2:19">
@@ -6588,7 +6714,7 @@
         <v>335</v>
       </c>
       <c r="S212" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="2:19">
@@ -6611,7 +6737,7 @@
         <v>332</v>
       </c>
       <c r="S213" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="2:19">
@@ -6634,10 +6760,10 @@
         <v>356</v>
       </c>
       <c r="R214" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="S214" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215" spans="2:19">
@@ -6660,7 +6786,7 @@
         <v>332</v>
       </c>
       <c r="S215" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="216" spans="2:19">
@@ -6683,7 +6809,7 @@
         <v>336</v>
       </c>
       <c r="S216" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="217" spans="2:19">
@@ -6706,7 +6832,7 @@
         <v>336</v>
       </c>
       <c r="S217" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218" spans="2:19">
@@ -6729,7 +6855,7 @@
         <v>329</v>
       </c>
       <c r="S218" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="219" spans="2:19">
@@ -6752,7 +6878,7 @@
         <v>336</v>
       </c>
       <c r="S219" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="220" spans="2:19">
@@ -6775,10 +6901,10 @@
         <v>327</v>
       </c>
       <c r="R220" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S220" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="221" spans="2:19">
@@ -6801,10 +6927,10 @@
         <v>327</v>
       </c>
       <c r="R221" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S221" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="222" spans="2:19">
@@ -6826,8 +6952,11 @@
       <c r="J222" t="s">
         <v>339</v>
       </c>
+      <c r="R222" t="s">
+        <v>380</v>
+      </c>
       <c r="S222" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="2:19">
@@ -6850,7 +6979,7 @@
         <v>327</v>
       </c>
       <c r="S223" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="224" spans="2:19">
@@ -6873,7 +7002,7 @@
         <v>329</v>
       </c>
       <c r="S224" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="225" spans="2:19">
@@ -6896,7 +7025,7 @@
         <v>336</v>
       </c>
       <c r="S225" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="226" spans="2:19">
@@ -6919,10 +7048,10 @@
         <v>327</v>
       </c>
       <c r="R226" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S226" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="227" spans="2:19">
@@ -6945,7 +7074,7 @@
         <v>332</v>
       </c>
       <c r="S227" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="228" spans="2:19">
@@ -6967,8 +7096,11 @@
       <c r="J228" t="s">
         <v>355</v>
       </c>
+      <c r="R228" t="s">
+        <v>366</v>
+      </c>
       <c r="S228" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="2:19">
@@ -6991,10 +7123,10 @@
         <v>332</v>
       </c>
       <c r="R229" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="S229" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="230" spans="2:19">
@@ -7017,10 +7149,10 @@
         <v>332</v>
       </c>
       <c r="R230" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="S230" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="231" spans="2:19">
@@ -7043,7 +7175,7 @@
         <v>332</v>
       </c>
       <c r="S231" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="232" spans="2:19">
@@ -7066,7 +7198,7 @@
         <v>330</v>
       </c>
       <c r="S232" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="2:19">
@@ -7089,7 +7221,7 @@
         <v>332</v>
       </c>
       <c r="S233" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="234" spans="2:19">
@@ -7112,7 +7244,7 @@
         <v>332</v>
       </c>
       <c r="S234" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="235" spans="2:19">
@@ -7135,7 +7267,7 @@
         <v>329</v>
       </c>
       <c r="S235" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" spans="2:19">
@@ -7158,7 +7290,7 @@
         <v>332</v>
       </c>
       <c r="S236" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="237" spans="2:19">
@@ -7180,8 +7312,11 @@
       <c r="J237" t="s">
         <v>339</v>
       </c>
+      <c r="R237" t="s">
+        <v>394</v>
+      </c>
       <c r="S237" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="238" spans="2:19">
@@ -7204,10 +7339,10 @@
         <v>336</v>
       </c>
       <c r="R238" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S238" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="239" spans="2:19">
@@ -7230,10 +7365,10 @@
         <v>335</v>
       </c>
       <c r="R239" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="S239" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="240" spans="2:19">
@@ -7256,7 +7391,7 @@
         <v>329</v>
       </c>
       <c r="S240" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="241" spans="2:19">
@@ -7279,10 +7414,10 @@
         <v>332</v>
       </c>
       <c r="R241" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="S241" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="242" spans="2:19">
@@ -7305,7 +7440,7 @@
         <v>332</v>
       </c>
       <c r="S242" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" spans="2:19">
@@ -7328,7 +7463,7 @@
         <v>332</v>
       </c>
       <c r="S243" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="244" spans="2:19">
@@ -7351,7 +7486,7 @@
         <v>327</v>
       </c>
       <c r="S244" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="245" spans="2:19">
@@ -7374,10 +7509,10 @@
         <v>333</v>
       </c>
       <c r="R245" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="S245" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="246" spans="2:19">
@@ -7400,7 +7535,7 @@
         <v>335</v>
       </c>
       <c r="S246" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="247" spans="2:19">
@@ -7422,8 +7557,11 @@
       <c r="J247" t="s">
         <v>339</v>
       </c>
+      <c r="R247" t="s">
+        <v>393</v>
+      </c>
       <c r="S247" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="248" spans="2:19">
@@ -7446,7 +7584,7 @@
         <v>320</v>
       </c>
       <c r="S248" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="249" spans="2:19">
@@ -7469,7 +7607,7 @@
         <v>327</v>
       </c>
       <c r="S249" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="250" spans="2:19">
@@ -7491,8 +7629,11 @@
       <c r="J250" t="s">
         <v>327</v>
       </c>
+      <c r="R250" t="s">
+        <v>397</v>
+      </c>
       <c r="S250" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="251" spans="2:19">
@@ -7515,7 +7656,7 @@
         <v>327</v>
       </c>
       <c r="S251" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="252" spans="2:19">
@@ -7535,10 +7676,10 @@
         <v>304</v>
       </c>
       <c r="R252" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="S252" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="2:19">
@@ -7561,10 +7702,10 @@
         <v>327</v>
       </c>
       <c r="R253" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="S253" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="254" spans="2:19">
@@ -7587,7 +7728,7 @@
         <v>358</v>
       </c>
       <c r="S254" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="255" spans="2:19">
@@ -7610,10 +7751,10 @@
         <v>329</v>
       </c>
       <c r="R255" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="S255" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="2:19">
@@ -7635,8 +7776,11 @@
       <c r="J256" t="s">
         <v>332</v>
       </c>
+      <c r="R256" t="s">
+        <v>367</v>
+      </c>
       <c r="S256" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="257" spans="2:19">
@@ -7659,10 +7803,10 @@
         <v>327</v>
       </c>
       <c r="R257" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="S257" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="2:19">
@@ -7685,10 +7829,10 @@
         <v>327</v>
       </c>
       <c r="R258" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="S258" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="259" spans="2:19">
@@ -7711,10 +7855,10 @@
         <v>330</v>
       </c>
       <c r="R259" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="S259" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="260" spans="2:19">
@@ -7737,10 +7881,10 @@
         <v>327</v>
       </c>
       <c r="R260" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="S260" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="261" spans="2:19">
@@ -7763,7 +7907,7 @@
         <v>351</v>
       </c>
       <c r="S261" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="262" spans="2:19">
@@ -7785,8 +7929,11 @@
       <c r="J262" t="s">
         <v>339</v>
       </c>
+      <c r="R262" t="s">
+        <v>399</v>
+      </c>
       <c r="S262" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="263" spans="2:19">
@@ -7809,7 +7956,7 @@
         <v>345</v>
       </c>
       <c r="S263" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="264" spans="2:19">
@@ -7832,7 +7979,7 @@
         <v>333</v>
       </c>
       <c r="S264" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="265" spans="2:19">
@@ -7855,7 +8002,7 @@
         <v>333</v>
       </c>
       <c r="S265" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="2:19">
@@ -7878,7 +8025,7 @@
         <v>345</v>
       </c>
       <c r="S266" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="267" spans="2:19">
@@ -7901,7 +8048,7 @@
         <v>327</v>
       </c>
       <c r="S267" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="268" spans="2:19">
@@ -7924,7 +8071,7 @@
         <v>323</v>
       </c>
       <c r="S268" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="269" spans="2:19">
@@ -7946,8 +8093,11 @@
       <c r="J269" t="s">
         <v>339</v>
       </c>
+      <c r="R269" t="s">
+        <v>399</v>
+      </c>
       <c r="S269" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="270" spans="2:19">
@@ -7970,7 +8120,7 @@
         <v>323</v>
       </c>
       <c r="S270" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" spans="2:19">
@@ -7993,270 +8143,10 @@
         <v>358</v>
       </c>
       <c r="S271" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B337D9-A0A7-4C64-B933-32F4F3C8ADD2}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{886A966F-626B-4922-A412-6887766A3505}"/>
 </file>